--- a/documentation/Roots.xlsx
+++ b/documentation/Roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\pwa-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107828FF-B6D2-41A0-B921-69C9C96BCD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF3BCC-9DAB-4BB6-B077-4A83724779AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="100">
   <si>
     <t>Requisição</t>
   </si>
@@ -78,9 +78,6 @@
     <t>/:id</t>
   </si>
   <si>
-    <t>Obter um hotel específico</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>/name</t>
-  </si>
-  <si>
-    <t>/:name</t>
   </si>
   <si>
     <t>Obter um hotel específico por nome</t>
@@ -338,6 +332,18 @@
   </si>
   <si>
     <t>Altera a password do utilizador</t>
+  </si>
+  <si>
+    <t>/:hotelName</t>
+  </si>
+  <si>
+    <t>Obter um hotel específico por id</t>
+  </si>
+  <si>
+    <t>/:recoverToken</t>
+  </si>
+  <si>
+    <t>Validar recuperação da password</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -532,6 +538,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -882,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465699-1A4C-4BD8-B810-481E3C1F192C}">
-  <dimension ref="B2:Z56"/>
+  <dimension ref="B2:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M19" sqref="L19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +907,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
@@ -908,46 +920,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="C2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="L2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="2:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
@@ -959,33 +971,33 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -994,10 +1006,10 @@
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
@@ -1009,36 +1021,44 @@
         <v>10</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="P4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
         <v>12</v>
@@ -1050,124 +1070,146 @@
         <v>10</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="P5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="10" t="s">
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1175,39 +1217,45 @@
         <v>10</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
+      <c r="P8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>10</v>
@@ -1216,26 +1264,30 @@
         <v>10</v>
       </c>
       <c r="K9" s="3"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
+      <c r="P9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
@@ -1246,11 +1298,11 @@
         <v>13</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1260,19 +1312,19 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1283,11 +1335,11 @@
         <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1295,23 +1347,21 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1322,11 +1372,11 @@
         <v>13</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1336,19 +1386,19 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="8" t="s">
         <v>6</v>
       </c>
@@ -1359,11 +1409,11 @@
         <v>13</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1373,38 +1423,38 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>24</v>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>8</v>
@@ -1412,7 +1462,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>10</v>
@@ -1421,29 +1471,37 @@
         <v>10</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>8</v>
@@ -1451,7 +1509,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>10</v>
@@ -1460,19 +1518,23 @@
         <v>10</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>13</v>
@@ -1482,7 +1544,7 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>10</v>
@@ -1491,19 +1553,27 @@
         <v>10</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -1513,7 +1583,7 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>10</v>
@@ -1522,19 +1592,23 @@
         <v>10</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>13</v>
@@ -1544,7 +1618,7 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>10</v>
@@ -1553,29 +1627,33 @@
         <v>10</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>10</v>
@@ -1590,14 +1668,14 @@
       <c r="P20" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>54</v>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>8</v>
@@ -1605,7 +1683,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>10</v>
@@ -1623,12 +1701,12 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>8</v>
@@ -1636,7 +1714,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>10</v>
@@ -1652,12 +1730,12 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>13</v>
@@ -1667,7 +1745,7 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>10</v>
@@ -1683,12 +1761,12 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>13</v>
@@ -1698,7 +1776,7 @@
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>10</v>
@@ -1712,12 +1790,12 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>13</v>
@@ -1727,7 +1805,7 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>10</v>
@@ -1741,22 +1819,22 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>10</v>
@@ -1771,22 +1849,22 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>10</v>
@@ -1799,22 +1877,22 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>10</v>
@@ -1828,14 +1906,14 @@
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>36</v>
+      <c r="B31" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>8</v>
@@ -1843,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>10</v>
@@ -1859,12 +1937,12 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>8</v>
@@ -1872,7 +1950,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>10</v>
@@ -1890,12 +1968,12 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>13</v>
@@ -1905,7 +1983,7 @@
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>10</v>
@@ -1923,12 +2001,12 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -1938,7 +2016,7 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>10</v>
@@ -1954,12 +2032,12 @@
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>13</v>
@@ -1969,7 +2047,7 @@
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>10</v>
@@ -1985,22 +2063,22 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2011,14 +2089,14 @@
       <c r="P36" s="6"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
-        <v>43</v>
+      <c r="B38" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>8</v>
@@ -2026,7 +2104,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>10</v>
@@ -2042,12 +2120,12 @@
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>8</v>
@@ -2055,7 +2133,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>10</v>
@@ -2071,12 +2149,12 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>13</v>
@@ -2086,7 +2164,7 @@
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>10</v>
@@ -2102,12 +2180,12 @@
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>13</v>
@@ -2117,7 +2195,7 @@
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>10</v>
@@ -2133,12 +2211,12 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>13</v>
@@ -2148,7 +2226,7 @@
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>10</v>
@@ -2164,22 +2242,22 @@
       <c r="P42" s="6"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>80</v>
+      <c r="B44" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>10</v>
@@ -2200,24 +2278,24 @@
         <v>10</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>10</v>
@@ -2238,24 +2316,24 @@
         <v>10</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>10</v>
@@ -2276,24 +2354,24 @@
         <v>10</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2304,20 +2382,22 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9" t="s">
-        <v>79</v>
+      <c r="D48" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -2327,55 +2407,47 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="50" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="4" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="51" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="C51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5" t="s">
-        <v>88</v>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>10</v>
@@ -2390,26 +2462,24 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="C52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>89</v>
+      <c r="B52" s="20"/>
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>10</v>
@@ -2420,180 +2490,214 @@
       <c r="L52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="C54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="C54" s="4" t="s">
+      <c r="I54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+      <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
+      <c r="D55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="C55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11" t="s">
+      <c r="I56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>95</v>
+    </row>
+    <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="C57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B44:B49"/>
     <mergeCell ref="Q2:Z15"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="D3:G3"/>

--- a/documentation/Roots.xlsx
+++ b/documentation/Roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\pwa-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF3BCC-9DAB-4BB6-B077-4A83724779AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443ED66-05D4-498F-BCAD-EB96F485FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="100">
   <si>
     <t>Requisição</t>
   </si>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465699-1A4C-4BD8-B810-481E3C1F192C}">
   <dimension ref="B2:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M19" sqref="L19:M19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1483,9 @@
       <c r="O15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
@@ -1526,7 +1528,9 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
@@ -1565,7 +1569,9 @@
       <c r="O17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
@@ -1600,7 +1606,9 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="P18" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
@@ -1635,7 +1643,9 @@
       </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="P19" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
@@ -1661,11 +1671,17 @@
       <c r="J20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="P20" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
@@ -1692,9 +1708,15 @@
         <v>10</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O22" s="6" t="s">
         <v>10</v>
       </c>
@@ -1723,8 +1745,12 @@
         <v>10</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -1740,9 +1766,7 @@
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
         <v>31</v>
@@ -1752,9 +1776,15 @@
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O24" s="6" t="s">
         <v>10</v>
       </c>
@@ -1771,9 +1801,7 @@
       <c r="E25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
         <v>32</v>
@@ -1783,8 +1811,12 @@
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -1800,9 +1832,7 @@
       <c r="E26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="s">
         <v>33</v>
@@ -1812,8 +1842,12 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -1842,9 +1876,15 @@
       <c r="J27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
@@ -1870,9 +1910,15 @@
         <v>10</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
@@ -1898,9 +1944,15 @@
         <v>10</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>

--- a/documentation/Roots.xlsx
+++ b/documentation/Roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\pwa-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2443ED66-05D4-498F-BCAD-EB96F485FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5891A1C2-0DA2-4DAB-9D5E-C6A7BACF94E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="101">
   <si>
     <t>Requisição</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Validar recuperação da password</t>
+  </si>
+  <si>
+    <t>/id</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -492,6 +495,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -501,7 +541,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -574,6 +614,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -894,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465699-1A4C-4BD8-B810-481E3C1F192C}">
-  <dimension ref="B2:Z57"/>
+  <dimension ref="B2:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +955,7 @@
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="57.7109375" bestFit="1" customWidth="1"/>
@@ -1304,14 +1353,18 @@
       <c r="H10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="3"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
@@ -1341,14 +1394,18 @@
       <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="3"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="P11" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
@@ -1982,9 +2039,15 @@
         <v>10</v>
       </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
@@ -2011,9 +2074,15 @@
         <v>10</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O32" s="6" t="s">
         <v>10</v>
       </c>
@@ -2044,9 +2113,15 @@
         <v>10</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O33" s="6" t="s">
         <v>10</v>
       </c>
@@ -2165,9 +2240,15 @@
         <v>10</v>
       </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
     </row>
@@ -2194,8 +2275,12 @@
         <v>10</v>
       </c>
       <c r="K39" s="3"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -2225,9 +2310,15 @@
         <v>10</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
@@ -2256,8 +2347,12 @@
         <v>10</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -2287,8 +2382,12 @@
         <v>10</v>
       </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -2484,7 +2583,7 @@
       <c r="P49" s="6"/>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2518,7 +2617,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="5" t="s">
         <v>11</v>
       </c>
@@ -2550,7 +2649,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2687,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2725,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
@@ -2666,7 +2765,7 @@
       </c>
     </row>
     <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="10" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2805,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="11" t="s">
         <v>16</v>
       </c>
@@ -2745,10 +2844,36 @@
         <v>93</v>
       </c>
     </row>
+    <row r="58" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="29"/>
+      <c r="C58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B51:B58"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="B51:B57"/>
     <mergeCell ref="B44:B49"/>
     <mergeCell ref="Q2:Z15"/>
     <mergeCell ref="B38:B42"/>

--- a/documentation/Roots.xlsx
+++ b/documentation/Roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\pwa-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B485E-9CAA-4F40-94C2-E3A989355B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A2EB7-A969-40E6-8669-4A77600D543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="99">
   <si>
     <t>Requisição</t>
   </si>
@@ -571,6 +571,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -603,19 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -939,10 +939,10 @@
   <dimension ref="B2:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,44 +965,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="L2" s="18" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
@@ -1028,19 +1028,19 @@
       <c r="P3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -1049,10 +1049,10 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
         <v>9</v>
@@ -1079,29 +1079,29 @@
       <c r="P4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
         <v>12</v>
@@ -1122,19 +1122,19 @@
       <c r="P5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
@@ -1173,19 +1173,19 @@
       <c r="P6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
@@ -1224,19 +1224,19 @@
       <c r="P7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1271,19 +1271,19 @@
       <c r="P8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
@@ -1318,19 +1318,19 @@
       <c r="P9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1367,19 +1367,19 @@
       <c r="P10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
@@ -1418,19 +1418,19 @@
       <c r="P11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1464,20 +1464,22 @@
         <v>10</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="P12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
@@ -1511,32 +1513,34 @@
         <v>10</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="P13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1573,19 +1577,19 @@
       <c r="P15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="14" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1624,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="13" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1644,7 @@
       <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="3"/>
@@ -1659,7 +1663,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1700,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -1733,7 +1737,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="13" t="s">
         <v>6</v>
       </c>
@@ -1769,10 +1773,10 @@
       <c r="P20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="28"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1811,7 +1815,7 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1914,7 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
@@ -1941,7 +1945,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1973,11 +1977,11 @@
       <c r="N27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="26"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2011,7 +2015,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2050,7 @@
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2083,7 +2087,7 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="7" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2124,7 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2163,7 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="P34" s="4"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="9" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2237,7 @@
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="7" t="s">
         <v>11</v>
       </c>
@@ -2267,7 +2271,7 @@
       <c r="P36" s="4"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2302,7 +2306,7 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2339,7 @@
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2411,7 @@
       <c r="P41" s="4"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="9" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2446,7 @@
       <c r="P42" s="4"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2482,7 +2486,7 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="7" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2524,7 @@
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="6" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +2562,7 @@
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="7" t="s">
         <v>11</v>
       </c>
@@ -2596,7 +2600,7 @@
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="7" t="s">
         <v>11</v>
       </c>
@@ -2634,7 +2638,7 @@
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -2668,7 +2672,7 @@
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="14" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2704,7 @@
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="13" t="s">
         <v>6</v>
       </c>
@@ -2738,7 +2742,7 @@
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
@@ -2776,7 +2780,7 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="13" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2820,7 @@
       </c>
     </row>
     <row r="55" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="8" t="s">
         <v>14</v>
       </c>
@@ -2856,7 +2860,7 @@
       </c>
     </row>
     <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
         <v>16</v>
       </c>
@@ -2896,7 +2900,7 @@
       </c>
     </row>
     <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="17"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="13" t="s">
         <v>6</v>
       </c>
@@ -2913,13 +2917,27 @@
       <c r="H57" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
+      <c r="I57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/documentation/Roots.xlsx
+++ b/documentation/Roots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Documents\GitHub\pwa-project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A2EB7-A969-40E6-8669-4A77600D543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC9B4F-E7A3-4F1E-B3AF-A3217564196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="99">
   <si>
     <t>Requisição</t>
   </si>
@@ -340,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +393,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -615,6 +622,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,7 +952,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,96 +975,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="23" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="L2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="12" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1076,34 +1086,34 @@
       <c r="O4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
+      <c r="P4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1119,36 +1129,36 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
+      <c r="P5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1170,36 +1180,36 @@
       <c r="O6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
+      <c r="P6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>95</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1221,36 +1231,36 @@
       <c r="O7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
+      <c r="P7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1268,36 +1278,36 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
+      <c r="P8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1315,36 +1325,36 @@
       <c r="O9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
+      <c r="P9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1364,36 +1374,36 @@
         <v>10</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
+      <c r="P10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1415,36 +1425,36 @@
       <c r="O11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
+      <c r="P11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1464,36 +1474,36 @@
         <v>10</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
+      <c r="P12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1513,48 +1523,48 @@
         <v>10</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
+      <c r="P13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1574,34 +1584,34 @@
         <v>10</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
+      <c r="P15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1619,32 +1629,32 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="3"/>
@@ -1658,26 +1668,26 @@
         <v>10</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1695,26 +1705,26 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1732,26 +1742,26 @@
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>62</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -1770,27 +1780,27 @@
         <v>10</v>
       </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="S20" s="17"/>
+      <c r="P20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="16"/>
     </row>
     <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -1812,22 +1822,24 @@
       <c r="O22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -1845,28 +1857,32 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="4" t="s">
         <v>10</v>
@@ -1880,28 +1896,32 @@
       <c r="O24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="P24" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="4" t="s">
         <v>10</v>
@@ -1911,28 +1931,32 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="4" t="s">
         <v>10</v>
@@ -1942,24 +1966,26 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="P26" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -1977,31 +2003,35 @@
       <c r="N27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="4"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L28" s="4" t="s">
         <v>10</v>
       </c>
@@ -2012,30 +2042,34 @@
         <v>10</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L29" s="4" t="s">
         <v>10</v>
       </c>
@@ -2046,25 +2080,27 @@
         <v>10</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2084,22 +2120,24 @@
         <v>10</v>
       </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -2121,24 +2159,26 @@
       <c r="O32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="4"/>
+      <c r="P32" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -2160,24 +2200,26 @@
       <c r="O33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P33" s="4"/>
+      <c r="P33" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -2197,24 +2239,26 @@
         <v>10</v>
       </c>
       <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="P34" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -2234,28 +2278,34 @@
         <v>10</v>
       </c>
       <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L36" s="4" t="s">
         <v>10</v>
       </c>
@@ -2268,24 +2318,26 @@
       <c r="O36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P36" s="4"/>
+      <c r="P36" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -2303,22 +2355,24 @@
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+      <c r="P38" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -2336,24 +2390,26 @@
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="P39" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -2373,24 +2429,26 @@
         <v>10</v>
       </c>
       <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="P40" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2408,24 +2466,26 @@
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="P41" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -2443,24 +2503,26 @@
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="P42" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -2481,24 +2543,24 @@
       <c r="O44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -2519,24 +2581,24 @@
       <c r="O45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -2557,24 +2619,24 @@
       <c r="O46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
         <v>75</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -2595,24 +2657,24 @@
       <c r="O47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="14" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="13" t="s">
         <v>96</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -2633,26 +2695,26 @@
       <c r="O48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13" t="s">
+      <c r="F50" s="30"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
         <v>83</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -2667,24 +2729,24 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
-      <c r="C51" s="14" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14" t="s">
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13" t="s">
         <v>84</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -2699,26 +2761,26 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13" t="s">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
         <v>85</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -2737,24 +2799,24 @@
         <v>10</v>
       </c>
       <c r="O52" s="4"/>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -2775,26 +2837,26 @@
       <c r="O53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
         <v>86</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -2815,26 +2877,26 @@
       <c r="O54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -2855,26 +2917,26 @@
       <c r="O55" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9" t="s">
+      <c r="G56" s="8"/>
+      <c r="H56" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -2895,26 +2957,26 @@
       <c r="O56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="13" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13" t="s">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
         <v>98</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -2935,7 +2997,7 @@
       <c r="O57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="10" t="s">
         <v>91</v>
       </c>
     </row>
